--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>pei877</t>
   </si>
   <si>
     <t>pRASHANt</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test123</t>
   </si>
 </sst>
 </file>
@@ -366,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,17 +371,9 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
